--- a/cases/NorthSea/NewTechnologies/NewTechnologies.xlsx
+++ b/cases/NorthSea/NewTechnologies/NewTechnologies.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\NewTechnologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D015D-E6C7-465B-8D80-9AE4F1C8F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737EA2C4-64D8-4671-85F4-B61AD590B765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewTechnologies" sheetId="1" r:id="rId1"/>
+    <sheet name="All" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,31 +62,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
   <si>
     <t>Node</t>
-  </si>
-  <si>
-    <t>Electrolyser_PEM, Storage_Battery, FuelCell, Storage_Hydrogen</t>
   </si>
   <si>
     <t>Electrolyser_PEM_offshore</t>
   </si>
   <si>
-    <t>Electrolyser_PEM_offshore, Storage_Battery</t>
+    <t>Stage 1</t>
   </si>
   <si>
-    <t>Stage 1</t>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Electrolyser_PEM</t>
+  </si>
+  <si>
+    <t>Storage_Battery</t>
+  </si>
+  <si>
+    <t>FuelCell, Storage_Hydrogen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,7 +584,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +606,7 @@
         <v>onNL_NE</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +614,7 @@
         <v>onNL_SE</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +622,7 @@
         <v>onNL_NW</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +630,7 @@
         <v>onNL_W</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,7 +638,7 @@
         <v>onNL_CE</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -630,7 +646,7 @@
         <v>onNL_SW</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +659,7 @@
         <v>onNL_E</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +667,7 @@
         <v>onBE</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +675,7 @@
         <v>onDE</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +683,7 @@
         <v>onUK</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +691,7 @@
         <v>onNOS</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +699,7 @@
         <v>onDKW</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +707,7 @@
         <v>ofNL_IJ_B</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +715,7 @@
         <v>ofNL_IJ_A</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +773,7 @@
         <v>ofNL_KW_A</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +781,7 @@
         <v>ofNL_KW_B</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +789,319 @@
         <v>ofNL_IJ_G</v>
       </c>
       <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5EF00-EA79-4AEB-B3C3-D33E39C14C3D}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A29">[1]Nodes_used!$A$2:$A$29</f>
+        <v>onNL_NE</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <v>onNL_SE</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <v>onNL_NW</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <v>onNL_W</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <v>onNL_CE</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <v>onNL_SW</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <v>onNL_CW</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <v>onNL_E</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>onBE</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <v>onDE</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <v>onUK</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>onNOS</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>onDKW</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <v>ofNL_IJ_B</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <v>ofNL_IJ_A</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <v>ofNL_BO_A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <v>ofNL_BO_B</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <v>ofNL_EG</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <v>ofNL_PA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <v>ofNL_LU</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <v>ofNL_GE_B</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <v>ofNL_GE_A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>ofNL_KZ_B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <v>ofNL_KZ_A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>ofNL_KN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>ofNL_KW_A</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>ofNL_KW_B</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <v>ofNL_IJ_G</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cases/NorthSea/NewTechnologies/NewTechnologies.xlsx
+++ b/cases/NorthSea/NewTechnologies/NewTechnologies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\NewTechnologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737EA2C4-64D8-4671-85F4-B61AD590B765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245944BA-554D-4F48-B674-CF141BE23811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewTechnologies" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
   <si>
     <t>Node</t>
   </si>
@@ -581,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,15 +592,21 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A29">[1]Nodes_used!$A$2:$A$29</f>
         <v>onNL_NE</v>
@@ -608,188 +614,275 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>onNL_SE</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>onNL_NW</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>onNL_W</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>onNL_CE</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>onNL_SW</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>onNL_CW</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>onNL_E</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>onBE</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>onDE</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>onUK</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>onNOS</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>onDKW</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>ofNL_IJ_B</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>ofNL_IJ_A</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>ofNL_BO_A</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>ofNL_BO_B</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>ofNL_EG</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>ofNL_PA</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>ofNL_LU</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>ofNL_GE_B</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>ofNL_GE_A</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>ofNL_KZ_B</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>ofNL_KZ_A</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>ofNL_KN</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>ofNL_KW_A</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>ofNL_KW_B</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>ofNL_IJ_G</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
